--- a/biology/Histoire de la zoologie et de la botanique/Michel_Gruet/Michel_Gruet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michel_Gruet/Michel_Gruet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Gruet,  né le 16 novembre 1912 à Angers, commune où il est mort le 11 mai 1998[1], est un archéologue, paléontologue, préhistorien et docteur en médecine français[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Gruet,  né le 16 novembre 1912 à Angers, commune où il est mort le 11 mai 1998, est un archéologue, paléontologue, préhistorien et docteur en médecine français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été médecin généraliste à Pellouailles-les-Vignes (Maine-et-Loire) puis médecin du travail à Angers (Bessonneau et Bull).
 Dès son plus jeune âge et influencé par son grand-père Louis Davy, ingénieur civil des mines (Segré et Chateaubriant), il s'est intéressé à la géologie puis à la préhistoire.
@@ -519,7 +533,7 @@
 Il a fait son service militaire en Tunisie au 4e régiment de tirailleurs tunisiens et se marie en 1939 à Bizerte en Tunisie. En fouillant, il découvre le site préhistorique de El Guettar, près de Gafsa en Tunisie.
 En Maine-et-Loire, il a fouillé pendant de longues années à Roc-en-pail près de Chalonnes-sur-Loire et a été conservateur du Muséum d'histoire naturelle d'Angers. Il a également publié la découverte du site de La Grézille à Chacé.
 Il a aussi fouillé à Rancogne en Charente, sous la direction de Claude Burnez.
-Il est l’inventeur de l'expression « dolmens angevins à portique » qui désigne certaines chambres mégalithiques quadrangulaires précédées d'une antichambre étroite et moins haute, le portique trilithe, couvert d'une dalle unique. Ce type de dolmen est une évolution tardive du dolmen à couloir par réduction du couloir et amplification de la chambre[3].
+Il est l’inventeur de l'expression « dolmens angevins à portique » qui désigne certaines chambres mégalithiques quadrangulaires précédées d'une antichambre étroite et moins haute, le portique trilithe, couvert d'une dalle unique. Ce type de dolmen est une évolution tardive du dolmen à couloir par réduction du couloir et amplification de la chambre.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Gruet, Inventaire des mégalithes de la France. 2, Maine-et-Loire, Paris, éditions du Centre national de la recherche scientifique, 1967 (BNF 37519009)
 Michel Gruet, La Formation du site d'Angers et les traces de ses premiers habitants avant la conquête romaine, 1977
